--- a/biology/Botanique/Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane/Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane/Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,21 +520,105 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Classe : DICOTYLEDONE (Magnoliopsida)
-Famille : Acanthaceae
-Genre : Dicliptera A.L. Jussieu
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Famille : Acanthaceae</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Genre : Dicliptera A.L. Jussieu
 Dicliptera granvillei Wasshausen     -     D
 Genre : Gynocraterium Bremekamp
 Gynocraterium guianense Bremekamp     -     F
 Genre : Justicia Linnaeus
-Justicia laevilinguis (C.G.D. Nees) Lindau     -     C
-Famille : Anacardiaceae
-Genre : Anacardium Linnaeus
+Justicia laevilinguis (C.G.D. Nees) Lindau     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Famille : Anacardiaceae</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Genre : Anacardium Linnaeus
 Anacardium amapaense J.D. Mitchell     -     D
 Genre : Tapirira Aublet
-Tapirira bethanniana J.D. Mitchell     -     D
-Famille : Annonaceae
-Genre : Anaxagorea Saint
+Tapirira bethanniana J.D. Mitchell     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Famille : Annonaceae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genre : Anaxagorea Saint
 Anaxagorea brevipedicellata Timmerman     -     D
 Genre : Annona Linnaeus
 Annona tenuiflora Martius     -     F
@@ -537,9 +633,47 @@
 Oxandra xylopioides Diels     -     F
 Genre : Xylopia Linnaeus
 Xylopia excellens R.E. Fries     -     F
-Xylopia parviflora Spruce     -     C
-Famille : Apocynaceae
-Genre : Aspidosperma Martius et Zuccarini
+Xylopia parviflora Spruce     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Famille : Apocynaceae</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Genre : Aspidosperma Martius et Zuccarini
 Aspidosperma helstonei Van Donselaar     -     D
 Aspidosperma macrophyllum J. Mﾁller Argoviensis     -     D
 subsp. morii L. Allorge
@@ -566,9 +700,47 @@
 Genre : Rhabdadenia J. Mﾁller Argoviensis
 Rhabdadenia macrostoma (Bentham) J. Mﾁller Argoviensis     -     C
 Genre : Secondatia A.L. De Candolle
-Secondatia densiflora A.L. De Candolle     -     C
-Famille : Aristolochiaceae
-Genre : Aristolochia Linnaeus
+Secondatia densiflora A.L. De Candolle     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Famille : Aristolochiaceae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Genre : Aristolochia Linnaeus
 Aristolochia bukuti O. Poncy     -     D
 Aristolochia cremersii O. Poncy     -     D
 Aristolochia flava O. Poncy     -     D
@@ -576,9 +748,47 @@
 Aristolochia paramaribensis P.E.S. Duchartre     -     C
 Aristolochia surinamensis C.L. Willdenow     -     F
 Aristolochia weddellii P.E.S. Duchartre     -     F
-var. rondoniana F.C. Hoehne
-Famille : Asclepiadaceae
-Genre : Cynanchum Linnaeus
+var. rondoniana F.C. Hoehne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Famille : Asclepiadaceae</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Genre : Cynanchum Linnaeus
 Cynanchum gortsianum G. Morillo     -     D
 Cynanchum prevostiae G. Morillo     -     D
 Genre : Marsdenia R. Brown
@@ -593,9 +803,47 @@
 Matelea sastrei G. Morillo     -     D
 Genre : Metalepis A.H.R. Grisebach
 Metalepis albiflora Urban     -     F
-Metalepis prevostiae G. Morillo     -     D
-Famille : Asteraceae
-Genre : Elaphandra Strother
+Metalepis prevostiae G. Morillo     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Famille : Asteraceae</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Genre : Elaphandra Strother
 Elaphandra moriana Pruski     -     D
 Genre : Erechtites Rafinesque
 Erechtites valerianaefolia (Wolf) Link ex Sprengel     -     C
@@ -608,9 +856,47 @@
 Genre : Stifftia Mikan
 Stifftia cayennensis H. Robinson et Kahn     -     D
 Genre : Xiphochaeta Poeppig
-Xiphochaeta aquatica Poeppig et Endlicher     -     F
-Famille : Bignoniaceae
-Genre : Adenocalymna Martius in Meisner
+Xiphochaeta aquatica Poeppig et Endlicher     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Famille : Bignoniaceae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Genre : Adenocalymna Martius in Meisner
 Adenocalymna impressum (Rusby) Sandwith     -     F
 Adenocalymna prancei A.H. Gentry     -     F
 Adenocalymna saulense A.H. Gentry     -     D
@@ -639,27 +925,217 @@
 Genre : Tanaecium O.P. Swartz
 Tanaecium jaroba O.P. Swartz     -     F
 Genre : Tynanthus Miers
-Tynanthus sastrei A.H. Gentry     -     D
-Famille : Bombacaceae
-Genre : Pachira Aublet
-Pachira dolichocalyx A. Robyns     -     D
-Famille : Boraginaceae
-Genre : Cordia Linnaeus
+Tynanthus sastrei A.H. Gentry     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Famille : Bombacaceae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Genre : Pachira Aublet
+Pachira dolichocalyx A. Robyns     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Famille : Boraginaceae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Genre : Cordia Linnaeus
 Cordia laevifrons I.M. Johnston     -     C
 Genre : Tournefortia Linnaeus
-Tournefortia paniculata Chamisso     -     F
-Famille : Burseraceae
-Genre : Protium J. Burman
+Tournefortia paniculata Chamisso     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Famille : Burseraceae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Genre : Protium J. Burman
 Protium altsonii Sandwith     -     C
 Protium divaricatum Engler     -     D
 var. fumarium Daly
 Protium fimbriatum Swart     -     F
-Protium strumosum Daly     -     C
-Famille : Cactaceae
-Genre : Cereus P. Miller
-Cereus hexagonus (Linnaeus) P. Miller     -     B
-Famille : Caesalpiniaceae
-Genre : Bauhinia Linnaeus
+Protium strumosum Daly     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Famille : Cactaceae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Genre : Cereus P. Miller
+Cereus hexagonus (Linnaeus) P. Miller     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Famille : Caesalpiniaceae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Genre : Bauhinia Linnaeus
 Bauhinia longicuspis Bentham     -     F
 Genre : Bocoa Aublet
 Bocoa prouacensis Aublet     -     E
@@ -685,27 +1161,217 @@
 Genre : Tachigali Aublet
 Tachigali bracteolata Dwyer     -     F
 Genre : Vouacapoua Aublet
-Vouacapoua americana Aublet     -     G
-Famille : Campanulaceae
-Genre : Lobelia Linnaeus
-Lobelia aquatica Chamisso     -     C
-Famille : Capparaceae
-Genre : Cleome Linnaeus
-Cleome latifolia M. Vahl ex A.P. De Candolle     -     F
-Famille : Caryocaraceae
-Genre : Caryocar Linnaeus
-Caryocar villosum (Aublet) Persoon     -     C
-Famille : Cecropiaceae
-Genre : Cecropia P. Loefling
+Vouacapoua americana Aublet     -     G</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Famille : Campanulaceae</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Genre : Lobelia Linnaeus
+Lobelia aquatica Chamisso     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Famille : Capparaceae</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Genre : Cleome Linnaeus
+Cleome latifolia M. Vahl ex A.P. De Candolle     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Famille : Caryocaraceae</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Genre : Caryocar Linnaeus
+Caryocar villosum (Aublet) Persoon     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Famille : Cecropiaceae</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Genre : Cecropia P. Loefling
 Cecropia distachya Huber     -     F
 Cecropia granvilleana C.C. Berg     -     D
 Genre : Coussapoa Aublet
 Coussapoa ferruginea Tr,cul     -     D
 Coussapoa microcephala Tr,cul     -     F
 Genre : Pourouma Aublet
-Pourouma saﾁlensis C.C. Berg et F. Kooy     -     D
-Famille : Chrysobalanaceae
-Genre : Acioa Aublet
+Pourouma saﾁlensis C.C. Berg et F. Kooy     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Famille : Chrysobalanaceae</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Genre : Acioa Aublet
 Acioa guianensis Aublet     -     D
 Genre : Couepia Aublet
 Couepia canomensis (Martius) Bentham ex J.D. Hooker     -     F
@@ -718,52 +1384,432 @@
 Licania cyathodes R. Benoist     -     D
 Licania pruinosa R. Benoist     -     F
 Licania reticulata G.T. Prance     -     F
-Licania silvae G.T. Prance     -     F
-Famille : Clusiaceae
-Genre : Rheedia Linnaeus
-Rheedia madruno (Kunth in Humb., Bonpl. et Kunth) Planc     -     F
-Famille : Combretaceae
-Genre : Buchenavia A.W. Eichler
+Licania silvae G.T. Prance     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Famille : Clusiaceae</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Genre : Rheedia Linnaeus
+Rheedia madruno (Kunth in Humb., Bonpl. et Kunth) Planc     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Famille : Combretaceae</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Genre : Buchenavia A.W. Eichler
 Buchenavia nitidissima (L.C.M. Richard) Alwan et Stace     -     D
 Buchenavia viridiflora Ducke     -     F
 Genre : Combretum Loefling
-Combretum rohrii Exell     -     C
-Famille : Connaraceae
-Genre : Rourea Aublet
-Rourea frutescens Aublet     -     C
-Famille : Convolvulaceae
-Genre : Dicranostyles Bentham
+Combretum rohrii Exell     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Famille : Connaraceae</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Genre : Rourea Aublet
+Rourea frutescens Aublet     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Famille : Convolvulaceae</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Genre : Dicranostyles Bentham
 Dicranostyles integra Ducke     -     F
 Genre : Ipomoea Linnaeus
 Ipomoea imperati (M. Vahl) A.H.R. Grisebach     -     C
 Ipomoea leprieurii D.F. Austin     -     C
 Genre : Maripa Aublet
-Maripa paniculata Barbosa Rodrigues     -     F
-Famille : Cucurbitaceae
-Genre : Cayaponia Silva Manso
+Maripa paniculata Barbosa Rodrigues     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Famille : Cucurbitaceae</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Genre : Cayaponia Silva Manso
 Cayaponia coriacea Cogniaux in Martius     -     C
 Genre : Ceratosanthes Adanson
 Ceratosanthes palmata (Linnaeus) Urban in Fedde     -     C
 Genre : Gurania (Schlechtendal) Cogniaux
 Gurania parviflora Cogniaux     -     B
-Gurania robusta Suessenguth     -     C
-Famille : Dilleniaceae
-Genre : Davilla Vandelli
+Gurania robusta Suessenguth     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Famille : Dilleniaceae</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Genre : Davilla Vandelli
 Davilla nitida (M. Vahl) Kubitzki     -     C
 Genre : Doliocarpus Rolander
-Doliocarpus sagotianus Kubitzki     -     F
-Famille : Droseraceae
-Genre : Drosera Linnaeus
-Drosera cayennensis Sagot ex Diels in Engler     -     C
-Famille : Ebenaceae
-Genre : Diospyros Linnaeus
-Diospyros tetrandra Hiern     -     C
-Famille : Erythroxylaceae
-Genre : Erythroxylum P. Browne
+Doliocarpus sagotianus Kubitzki     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Famille : Droseraceae</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Genre : Drosera Linnaeus
+Drosera cayennensis Sagot ex Diels in Engler     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Famille : Ebenaceae</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Genre : Diospyros Linnaeus
+Diospyros tetrandra Hiern     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Famille : Erythroxylaceae</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Genre : Erythroxylum P. Browne
 Erythroxylum roraimae J.F. Klotzsch ex O.E. Schulz     -     F
-Erythroxylum suberosum Saint-Hilaire      -     C
-Famille : Euphorbiaceae
-Genre : Adenophaedra J. Mﾁller Argoviensis
+Erythroxylum suberosum Saint-Hilaire      -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Famille : Euphorbiaceae</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Genre : Adenophaedra J. Mﾁller Argoviensis
 Adenophaedra grandifolia (J.F. Klotzsch) J. Mﾁll. Argoviens     -     F
 Genre : Croton Linnaeus
 Croton guianensis Aublet     -     C
@@ -784,9 +1830,47 @@
 Genre : Plukenetia Linnaeus
 Plukenetia supraglandulosa L.J. Gillespie     -     F
 Genre : Siphonia L.C.M. Richard ex Schreber
-Siphonia pauciflora Bentham     -     C
-Famille : Fabaceae
-Genre : Acosmium Schott
+Siphonia pauciflora Bentham     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Famille : Fabaceae</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Genre : Acosmium Schott
 Acosmium nitens (J. Vogel) Yakovlev     -     F
 Genre : Aeschynomene Linnaeus
 Aeschynomene fluminensis Vellozo     -     C
@@ -808,9 +1892,47 @@
 Genre : Sesbania Adanson
 Sesbania exasperata Humboldt, Bonpland et Kunth     -     C
 Genre : Stylosanthes O.P. Swartz
-Stylosanthes angustifolia J. Vogel     -     C
-Famille : Gesneriaceae
-Genre : Besleria Linnaeus
+Stylosanthes angustifolia J. Vogel     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Famille : Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Genre : Besleria Linnaeus
 Besleria laxiflora Bentham     -     B
 Besleria maasii Wiehler     -     B
 Genre : Drymonia Martius
@@ -829,26 +1951,216 @@
 Nautilocalyx pallidus (Sprague) Sprague     -     B
 Genre : Paradrymonia Hanstein
 Paradrymonia ciliosa (Martius) Wiehler     -     B
-Paradrymonia maculata (J.D. Hooker) Wiehler     -     B
-Famille : Hernandiaceae
-Genre : Sparattanthelium Martius
-Sparattanthelium guianense Sandwith     -     F
-Famille : Hippocrateaceae
-Genre : Anthodon Ruiz et Pavon
+Paradrymonia maculata (J.D. Hooker) Wiehler     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Famille : Hernandiaceae</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Genre : Sparattanthelium Martius
+Sparattanthelium guianense Sandwith     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Famille : Hippocrateaceae</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Genre : Anthodon Ruiz et Pavon
 Anthodon decussatum Ruiz et Pavon     -     F
 Genre : Cheiloclinium Miers
 Cheiloclinium minutiflorum (A.C. Smith) A.C. Smith     -     F
 Genre : Peritassa Miers
-Peritassa laevigata (Hoffmannsegg ex Link) A.C. Smith     -     F
-Famille : Hugoniaceae
-Genre : Roucheria Planchon
+Peritassa laevigata (Hoffmannsegg ex Link) A.C. Smith     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Famille : Hugoniaceae</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Genre : Roucheria Planchon
 Roucheria calophylla Planchon     -     C
-Roucheria laxiflora Winkler     -     F
-Famille : Humiriaceae
-Genre : Schistostemon (Urban) Cuatrecasas
-Schistostemon sylvaticum Sabatier     -     D
-Famille : Lauraceae
-Genre : Aiouea Aublet
+Roucheria laxiflora Winkler     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Famille : Humiriaceae</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Genre : Schistostemon (Urban) Cuatrecasas
+Schistostemon sylvaticum Sabatier     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Famille : Lauraceae</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Genre : Aiouea Aublet
 Aiouea impressa (Meissner) Kostermans     -     G
 Aiouea longipetiolata H. van der Werff     -     D
 Aiouea opaca van der Werff     -     F
@@ -872,9 +2184,47 @@
 Rhodostemonodaphne leptoclada Madrinan     -     D
 Rhodostemonodaphne revolutifolia Madrinan     -     D
 Rhodostemonodaphne rufovirgata Madrinan     -     D
-Rhodostemonodaphne saﾁlensis Madrinan     -     D
-Famille : Lecythidaceae
-Genre : Bertholletia Humboldt et Bonpland
+Rhodostemonodaphne saﾁlensis Madrinan     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Famille : Lecythidaceae</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Genre : Bertholletia Humboldt et Bonpland
 noyer d'Amazonie, Bertholletia excelsa Humboldt et Bonpland     -     G
 Genre : Corythophora R. Knuth
 Corythophora rimosa W.A. Rodrigues     -     D
@@ -893,32 +2243,222 @@
 Genre : Lecythis Loefling
 Lecythis persistens Sagot     -     D
 subsp. aurantiaca S.A. Mori
-Lecythis pneumatophora S.A. Mori     -     D
-Famille : Lentibulariaceae
-Genre : Genlisea A. Saint-Hilaire
+Lecythis pneumatophora S.A. Mori     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Famille : Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Genre : Genlisea A. Saint-Hilaire
 Genlisea filiformis Saint-Hilaire     -     C
 Genlisea pygmaea A. Saint-Hilaire     -     C
 Genre : Utricularia Linnaeus
 Utricularia cucculata A. Saint-Hilaire et Girard     -     C
 Utricularia hydrocarpa M. Vahl     -     C
 Utricularia tenuissima Tutin     -     C
-Utricularia viscosa Spruce ex Oliver     -     C
-Famille : Loganiaceae
-Genre : Strychnos Linnaeus
+Utricularia viscosa Spruce ex Oliver     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Famille : Loganiaceae</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Genre : Strychnos Linnaeus
 Strychnos cayennensis Krukoff et R.C. Barneby     -     D
-Strychnos jobertiana Baillon     -     F
-Famille : Loranthaceae
-Genre : Oryctina P.E.L. van Tieghem
+Strychnos jobertiana Baillon     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Famille : Loranthaceae</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Genre : Oryctina P.E.L. van Tieghem
 Oryctina myrsinites (A.W. Eichler) Kuijt     -     F
 Genre : Psittacanthus Martius
-Psittacanthus lamprophyllus A.W. Eichler     -     C
-Famille : Lythraceae
-Genre : Ammannia Linnaeus
+Psittacanthus lamprophyllus A.W. Eichler     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Famille : Lythraceae</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Genre : Ammannia Linnaeus
 Ammannia latifolia Linnaeus     -     C
 Genre : Rotala Linnaeus
-Rotala mexicana Chamisso et Schlechtendal     -     C
-Famille : Malpighiaceae
-Genre : Banisteriopsis Robinson
+Rotala mexicana Chamisso et Schlechtendal     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Famille : Malpighiaceae</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Genre : Banisteriopsis Robinson
 Banisteriopsis schwannioides (A.H.R. Grisebach) B. Gates     -     F
 Genre : Coleostachys Adr. H.L. Jussieu
 Coleostachys genipifolia Adr. H.L. Jussieu     -     F
@@ -929,12 +2469,88 @@
 Hiraea morii W.R. Anderson     -     D
 Hiraea propinqua W.R. Anderson     -     D
 Genre : Mascagnia Bentham
-Mascagnia divaricata (Kunth in Humboldt, Bonpl. et Kunth)     -     F
-Famille : Malvaceae
-Genre : Sida Linnaeus
-Sida spinosa Linnaeus     -     C
-Famille : Melastomataceae
-Genre : Acisanthera P. Browne
+Mascagnia divaricata (Kunth in Humboldt, Bonpl. et Kunth)     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Famille : Malvaceae</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Genre : Sida Linnaeus
+Sida spinosa Linnaeus     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Famille : Melastomataceae</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Genre : Acisanthera P. Browne
 Acisanthera crassipes (Naudin) J.J. Wurdack     -     C
 Genre : Clidemia D. Don
 Clidemia granvillei J.J. Wurdack     -     D
@@ -970,12 +2586,88 @@
 Genre : Ossaea A.P. De Candolle
 Ossaea coarctiflora J.J. Wurdack     -     E
 Genre : Votomita Aublet
-Votomita guianensis Aublet     -     G
-Famille : Meliaceae
-Genre : Guarea Allamand ex Linnaeus
-Guarea michel-moddei T.D. Pennington et S.A. Mori     -     D
-Famille : Menispermaceae
-Genre : Abuta Aublet
+Votomita guianensis Aublet     -     G</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Famille : Meliaceae</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Genre : Guarea Allamand ex Linnaeus
+Guarea michel-moddei T.D. Pennington et S.A. Mori     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Famille : Menispermaceae</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Genre : Abuta Aublet
 Abuta obovata Diels     -     C
 Genre : Cissampelos Linnaeus
 Cissampelos andromorpha De Candolle     -     C
@@ -985,9 +2677,47 @@
 Genre : Elephantomene R.C. Barneby et Krukoff
 Elephantomene eburnea R.C. Barneby et Krukoff     -     D
 Genre : Orthomene R.C. Barneby et Krukoff
-Orthomene prancei R.C. Barneby et Krukoff     -     F
-Famille : Mimosaceae
-Genre : Abarema Pittier
+Orthomene prancei R.C. Barneby et Krukoff     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Famille : Mimosaceae</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Genre : Abarema Pittier
 Abarema curvicarpa (Irwin) R.C. Barneby et J.W. Grimes     -     G
 var. curvicarpa
 Abarema gallorum R.C. Barneby et J.W. Grimes     -     G
@@ -1019,9 +2749,47 @@
 Genre : Neptunia Loureiro
 Neptunia natans (Linnaeus f.) Druce     -     C
 Genre : Stryphnodendron Martius
-Stryphnodendron moricolor R.C. Barneby et J.W. Grimes     -     D
-Famille : Moraceae
-Genre : Brosimum O.P. Swartz
+Stryphnodendron moricolor R.C. Barneby et J.W. Grimes     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Famille : Moraceae</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Genre : Brosimum O.P. Swartz
 Brosimum guianense (Aublet) Huber     -     E
 Brosimum rubescens Taubert     -     E
 Genre : Dorstenia Linnaeus
@@ -1033,15 +2801,129 @@
 Helicostylis tomentosa (Poeppig et Endlicher) Rusby     -     G
 Genre : Sorocea Saint
 Sorocea muriculata Miquel     -     F
-subsp. uaupensis (Baillon) C.C. Berg
-Famille : Myristicaceae
-Genre : Virola Aublet
-Virola kwatae D. Sabatier     -     D
-Famille : Myrsinaceae
-Genre : Cybianthus Martius
-Cybianthus surinamensis (Sprengel f.) Agostini     -     F
-Famille : Myrtaceae
-Genre : Eugenia Linnaeus
+subsp. uaupensis (Baillon) C.C. Berg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Famille : Myristicaceae</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Genre : Virola Aublet
+Virola kwatae D. Sabatier     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Famille : Myrsinaceae</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Genre : Cybianthus Martius
+Cybianthus surinamensis (Sprengel f.) Agostini     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Famille : Myrtaceae</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Genre : Eugenia Linnaeus
 Eugenia cowanii McVaugh     -     C
 Eugenia cucullata Amshoff     -     F
 Genre : Marlierea J. CambessSdes
@@ -1049,13 +2931,89 @@
 Genre : Myrcia A.P. De Candolle ex Guillemin
 Myrcia amazonica A.P. De Candolle     -     C
 Myrcia quitarensis (Bentham) Sagot     -     F
-Myrcia servata McVaugh     -     C
-Famille : Nyctaginaceae
-Genre : Neea Ruiz et Pavon
+Myrcia servata McVaugh     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Famille : Nyctaginaceae</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Genre : Neea Ruiz et Pavon
 Neea constricta Spruce ex J.A. Schmidt     -     F
-Neea spruceana Heimerl     -     F
-Famille : Ochnaceae
-Genre : Ouratea Aublet
+Neea spruceana Heimerl     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Famille : Ochnaceae</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Genre : Ouratea Aublet
 Ouratea cardiosperma (Lamarck) Engler     -     C
 Ouratea engleri P.E.L. van Tieghem     -     F
 Ouratea francinae C. Sastre     -     D
@@ -1064,15 +3022,129 @@
 Genre : Sauvagesia Linnaeus
 Sauvagesia aliciae C. Sastre     -     D
 subsp. aratayensis C. Sastre
-Sauvagesia ramosissima Spruce ex A.W. Eichler     -     C
-Famille : Olacaceae
-Genre : Heisteria N.J. Jacquin
-Heisteria barbata Cuatrecasas     -     C
-Famille : Oxalidaceae
-Genre : Oxalis Linnaeus
-Oxalis juruensis Diels     -     C
-Famille : Passifloraceae
-Genre : Dilkea Masters
+Sauvagesia ramosissima Spruce ex A.W. Eichler     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Famille : Olacaceae</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Genre : Heisteria N.J. Jacquin
+Heisteria barbata Cuatrecasas     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Famille : Oxalidaceae</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Genre : Oxalis Linnaeus
+Oxalis juruensis Diels     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Famille : Passifloraceae</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Genre : Dilkea Masters
 Dilkea wallisii Masters     -     C
 Genre : Passiflora Linnaeus
 Passiflora crenata C. Feuillet et G. Cremers     -     D
@@ -1081,17 +3153,131 @@
 var. moritziana (Planchon) Killip
 Passiflora nitida Kunth in Humboldt, Bonpland et Kunth     -     C
 Passiflora plumosa C. Feuillet et G. Cremers     -     D
-Passiflora rufostipulata C. Feuillet     -     D
-Famille : Piperaceae
-Genre : Peperomia L.P. Ruiz et J.A. Pavon
-Peperomia gracieana Görts-van Rijn     -     D
-Famille : Podostemaceae
-Genre : Apinagia Tulasne
+Passiflora rufostipulata C. Feuillet     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Famille : Piperaceae</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Genre : Peperomia L.P. Ruiz et J.A. Pavon
+Peperomia gracieana Görts-van Rijn     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Famille : Podostemaceae</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Genre : Apinagia Tulasne
 Apinagia longifolia (Tulasne) Van Royen     -     C
 Genre : Marathrum Humboldt et Bonpland
-Marathrum squamosum Weddell     -     C
-Famille : Polygalaceae
-Genre : Barnhartia Gleason
+Marathrum squamosum Weddell     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Famille : Polygalaceae</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Genre : Barnhartia Gleason
 Barnhartia floribunda Gleason     -     F
 Genre : Polygala Linnaeus
 Polygala leptocaulis Torrey et A. Gray     -     C
@@ -1100,15 +3286,129 @@
 Polygala variabilis Kunth in Humboldt, Bonpland et Kunth     -     C
 Genre : Securidaca Linnaeus
 Securidaca paniculata L.C.M. Richard     -     F
-var. lasiocarpa Oort
-Famille : Proteaceae
-Genre : Roupala Aublet
-Roupala obtusata J.F. Klotzsch     -     F
-Famille : Quiinaceae
-Genre : Quiina Aublet
-Quiina cruegeriana A.H.R. Grisebach     -     C
-Famille : Rubiaceae
-Genre : Antirhea
+var. lasiocarpa Oort</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Famille : Proteaceae</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Genre : Roupala Aublet
+Roupala obtusata J.F. Klotzsch     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Famille : Quiinaceae</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Genre : Quiina Aublet
+Quiina cruegeriana A.H.R. Grisebach     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Famille : Rubiaceae</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Genre : Antirhea
 Antirhea triflora J.H. Kirkbride     -     D
 Genre : Chomelia Linnaeus
 Chomelia glabriuscula Steyermark     -     D
@@ -1170,18 +3470,94 @@
 Genre : Sipanea Aublet
 Sipanea ovalifolia Bremekamp     -     D
 var. villosissima Steyermark
-Sipanea stahelii Bremekamp     -     ?
-Famille : Rutaceae
-Genre : Esenbeckia Kunth in Humboldt, Bonpland et Kunth
+Sipanea stahelii Bremekamp     -     ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Famille : Rutaceae</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Genre : Esenbeckia Kunth in Humboldt, Bonpland et Kunth
 Esenbeckia cowanii Kaastra     -     D
 Genre : Pilocarpus M. Vahl
 Pilocarpus racemosus M. Vahl     -     C
 subsp. racemosus
 Genre : Raputia Aublet
 Raputia aromatica Aublet     -     C
-Raputia brevipedunculata J.A. Kallunki     -     C
-Famille : Sapindaceae
-Genre : Allophylus Linnaeus
+Raputia brevipedunculata J.A. Kallunki     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Famille : Sapindaceae</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Genre : Allophylus Linnaeus
 Allophylus leucoclados L.A.T. Radlkofer     -     F
 Genre : Cupania Linnaeus
 Cupania hispida L.A.T. Radlkofer     -     C
@@ -1201,9 +3577,47 @@
 Serjania oblongifolia L.A.T. Radlkofer     -     F
 Serjania setulosa L.A.T. Radlkofer     -     F
 Genre : Talisia Aublet
-Talisia nervosa L.A.T. Radlkofer     -     F
-Famille : Sapotaceae
-Genre : Chrysophyllum Linnaeus
+Talisia nervosa L.A.T. Radlkofer     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Famille : Sapotaceae</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Genre : Chrysophyllum Linnaeus
 Chrysophyllum sparsiflorum J.F. Klotzsch ex Miquel     -     C
 Genre : Diploon Cronquist
 Diploon cuspidatum (F.C. Hoehne) Cronquist     -     F
@@ -1228,19 +3642,133 @@
 subsp. cochlearia
 Pradosia huberi (Ducke) Ducke     -     G
 Pradosia subverticillata Ducke     -     F
-Pradosia verticillata Ducke     -     G
-Famille : Scrophulariaceae
-Genre : Benjaminia C.F.P. Martius ex L. Benjamin
+Pradosia verticillata Ducke     -     G</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Famille : Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Genre : Benjaminia C.F.P. Martius ex L. Benjamin
 Benjaminia reflexa (Bentham) D'Arcy     -     C
 Genre : Lindernia Allioni
-Lindernia microcalyx Pennell et Stehl,     -     C
-Famille : Simaroubaceae
-Genre : Simaba Aublet
+Lindernia microcalyx Pennell et Stehl,     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Famille : Simaroubaceae</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Genre : Simaba Aublet
 Simaba guianensis Aublet     -     F
 subsp. ecaudata (Cronquist) P.B. Cavalcante
-Simaba morettii C. Feuillet     -     D
-Famille : Solanaceae
-Genre : Browallia Linnaeus
+Simaba morettii C. Feuillet     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Famille : Solanaceae</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Genre : Browallia Linnaeus
 Browallia americana Linnaeus     -     F
 Genre : Schwenckia Linnaeus
 Schwenckia americana Linnaeus     -     C
@@ -1248,28 +3776,218 @@
 Genre : Solanum Linnaeus
 Solanum endopogon (Bitter) Bohs     -     G
 Solanum leucopogon Huber     -     F
-Solanum morii S. Knapp     -     D
-Famille : Sterculiaceae
-Genre : Byttneria Loefling
+Solanum morii S. Knapp     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Famille : Sterculiaceae</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Genre : Byttneria Loefling
 Byttneria morii L. Barnett et L.J. Dorr     -     D
 Genre : Theobroma Linnaeus
 Cacao, Theobroma cacao Linnaeus     -     E
 subsp. sphaerocarpum (Chevalier) Cuatrecasas
 Theobroma subincanum Martius     -     E
-Theobroma velutinum R. Benoist     -     E
-Famille : Trigoniaceae
-Genre : Trigonia Aublet
-Trigonia hypoleuca A.H.R. Grisebach     -     C
-Famille : Turneraceae
-Genre : Turnera Plumier ex Linnaeus
+Theobroma velutinum R. Benoist     -     E</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Famille : Trigoniaceae</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Genre : Trigonia Aublet
+Trigonia hypoleuca A.H.R. Grisebach     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Famille : Turneraceae</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Genre : Turnera Plumier ex Linnaeus
 Turnera rupestris Aublet     -     D
 var. frutescens (Aublet) Urban
-var. rupestris
-Famille : Urticaceae
-Genre : Pilea J. Lindley emend. H.S. John
-Pilea tabularis C.C. Berg     -     D
-Famille : Verbenaceae
-Genre : Aegiphila N.J. Jacquin
+var. rupestris</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Famille : Urticaceae</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Genre : Pilea J. Lindley emend. H.S. John
+Pilea tabularis C.C. Berg     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Famille : Verbenaceae</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Genre : Aegiphila N.J. Jacquin
 Aegiphila lhotzkiana Chamisso     -     C
 Aegiphila membranacea Turczaninow     -     D
 Genre : Cornutia Linnaeus
@@ -1277,38 +3995,265 @@
 Genre : Petrea Linnaeus
 Petrea sulphurea M.J. Jansen-Jacobs     -     D
 Genre : Stachytarpheta M. Vahl
-Stachytarpheta angustifolia (P. Miller) M. Vahl     -     C
-Famille : Violaceae
-Genre : Paypayrola Aublet
+Stachytarpheta angustifolia (P. Miller) M. Vahl     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Famille : Violaceae</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Genre : Paypayrola Aublet
 Paypayrola grandiflora Tulasne     -     F
 Genre : Rinorea Aublet
 Rinorea bahiensis (Moricand) O. Kuntze     -     C
-Rinorea pectino-squamata W.H.A. Hekking     -     D
-Famille : Vitaceae
-Genre : Cissus Linnaeus
+Rinorea pectino-squamata W.H.A. Hekking     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Famille : Vitaceae</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Genre : Cissus Linnaeus
 Cissus descoingsii J.A. Lombardi     -     D
 Cissus duarteana J. CambessSdes     -     C
-Cissus surinamensis Descoings     -     F
-Famille : Vochysiaceae
-Genre : Qualea Aublet
+Cissus surinamensis Descoings     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Classe : DICOTYLEDONE (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Famille : Vochysiaceae</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Genre : Qualea Aublet
 Qualea amapaensis Balslev et S.A. Mori     -     F
 Qualea mori-boomii L. Marcano-Berti     -     D
 Genre : Vochysia Aublet
 Vochysia neyratii Normand     -     D
-Vochysia sabatieri L. Marcano-Berti     -     D
-Classe : Monocotyledone (Liliopsida)
-Famille : Agavaceae
-Genre : Furcraea Ventenat
-Choca vert, Furcraea foetida (Linnaeus) Haworth     -     B
-Famille : Alismataceae
-Genre : Echinodorus L.C.M. Richard ex G. Engelmann in A. G
+Vochysia sabatieri L. Marcano-Berti     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Famille : Agavaceae</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Genre : Furcraea Ventenat
+Choca vert, Furcraea foetida (Linnaeus) Haworth     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Famille : Alismataceae</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Genre : Echinodorus L.C.M. Richard ex G. Engelmann in A. G
 Echinodorus macrophyllus (Kunth) Mich. in A.P. et A.C.De     -     C
 subsp. scaber (Rataj) Haynes et Holm-Nielsen
 Genre : Sagittaria Linnaeus
 Sagittaria guayanensis Humboldt, Bonpland et Kunth     -     C
-subsp. guayanensis
-Famille : Araceae
-Genre : Anthurium Schott
+subsp. guayanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Famille : Araceae</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Genre : Anthurium Schott
 Anthurium moonenii Croat     -     B
 Genre : Caladium Ventenat
 Caladium schomburgkii Schott     -     B
@@ -1329,9 +4274,47 @@
 Philodendron riedelianum Schott     -     B
 Philodendron wittianum Engler     -     B
 Genre : Rhodospatha Poeppig
-Rhodospatha brachypoda Bunting     -     B
-Famille : Arecaceae
-Genre : Asterogyne H. Wendland
+Rhodospatha brachypoda Bunting     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Famille : Arecaceae</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Genre : Asterogyne H. Wendland
 Asterogyne guianensis J.J. de Granville et Henderson     -     B
 Genre : Astrocaryum G.F.W. Meyer
 Astrocaryum minus Trail     -     B
@@ -1352,57 +4335,1118 @@
 Scheelea macrolepis Burret     -     B
 Scheelea maripensis S.F. Glassman     -     D
 Genre : Syagrus Martius
-Syagrus stratincola Wessels Boer     -     B
-Famille : Bromeliaceae
-Genre : Aechmea Ruiz et Pavon
+Syagrus stratincola Wessels Boer     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Famille : Bromeliaceae</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Genre : Aechmea Ruiz et Pavon
 Aechmea castelnavii Baker     -     B
-Aechmea egleri</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Aechmea egleriana L.B. Smith     -     B
+Aechmea penduliflora Andr,     -     B
+Aechmea politii L.B. Smith     -     B
+Aechmea setigera Martius ex J.H. Schultes     -     B
+Genre : Ananas P. Miller
+Ananas ananassoides (Baker) L.B. Smith     -     E
+Ananas nanus (L.B. Smith) L.B. Smith     -     E
+Ananas parguazensis Camargo et L.B. Smith     -     E
+Genre : Araeococcus A.T. Brongniart
+Araeococcus goeldianus L.B. Smith     -     B
+Genre : Bromelia Linnaeus
+Bromelia agavifolia A.T. Brongniart ex Houllett     -     D
+Bromelia granvillei L.B. Smith et E.J. Gouda     -     B
+Bromelia tubulosa L.B. Smith     -     B
+Genre : Disteganthus Lemaire
+Disteganthus basilateralis Lemaire     -     D
+Disteganthus calatheoides (L.B.Smith) L.B.Smith &amp; R.W.R     -     B
+Genre : Guzmania Ruiz et Pavon
+Guzmania altsonii L.B. Smith     -     B
+Genre : Pitcairnia L'Heritier
+Pitcairnia caricifolia Martius ex J.H. Schultes     -     B
+var. caricifolia
+Pitcairnia geyskesii L.B. Smith     -     D
+Pitcairnia incarnata Baker     -     D
+Pitcairnia leprieurii Baker     -     D
+Pitcairnia patentiflora L.B. Smith     -     B
+Pitcairnia pusilla Mez     -     D
+Pitcairnia sastrei L.B. Smith     -     D
+Genre : Streptocalyx Beer
+Streptocalyx poeppigii Beer     -     B
+Genre : Tillandsia Linnaeus
+Tillandsia kegeliana Mez     -     B
+Tillandsia paraensis Mez     -     B
+Genre : Vriesea Lindley
+Vriesea heliconioides (Kunth) Hooker ex Walpers     -     B
+var. heliconioides
+Vriesea jonghei (K. Koch) E. Morren     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Famille : Burmanniaceae</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Genre : Thismia Griffith
+Thismia saﾁlensis P.J.M. Maas et Maas     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Famille : Costaceae</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Genre : Costus Linnaeus
+Costus curcumoides P.J.M. Maas     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Famille : Cyperaceae</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Genre : Becquerelia A.T. Brongniart
+Becquerelia tuberculata (B"ckeler) H. Pfeiffer     -     C
+Genre : Bolboschoenus (Asch.) Palla
+Bolboschoenus maritimus (L.) Palla (syn. Schoenoplectus maritimus  (L.) Lye     -     C
+Genre : Bulbostylis Kunth
+Bulbostylis conifera (Kunth) C.B. Clarke     -     C
+Genre : Cyperus Linnaeus
+Cyperus gayi (C.B. Clarke) Kﾁkenthal     -     D
+Genre : Diplacrum R. Brown
+Diplacrum guianense (C.G.D. Nees) Koyama     -     C
+Genre : Eleocharis R. Brown
+Eleocharis mitrata (A.H.R. Grisebach) C.B. Clarke     -     C
+Eleocharis pachystyla (C. Wright) C.B. Clarke     -     C
+Eleocharis plicarhachis (A.H.R. Grisebach) Svenson     -     C
+Eleocharis sellowiana Kunth in Humboldt, Bonpl. et Kunth     -     D
+var. homonyma (Steudel) H. Pfeiffer
+Genre : Lagenocarpus C.G.D. Nees
+Lagenocarpus guianensis Lindley et C.G.D. Nees ex Nees     -     C
+subsp. guianensis
+Genre : Mapania Aublet
+Mapania assimilis T. Koyama     -     D
+subsp. guianensis D.A. Simpson
+Mapania paradoxa J. Raynal     -     D
+Genre : Rhynchospora M. Vahl
+Rhynchospora cajennensis B"ckeler     -     C
+Rhynchospora canaliculata B"ckeler     -     C
+Rhynchospora subdicephala T. Koyama     -     D
+Rhynchospora velutina (Kunth) B"ckeler     -     C
+Genre : Scleria P.J. Bergius
+Scleria macrophylla C.B. Presl     -     C
+Scleria setacea Poiret     -     C
+Scleria violacea Pilger     -     C
+Genre : Websteria C. Wright
+Websteria confervoides (Poiret) S. Hooper     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Famille : Eriocaulaceae</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Genre : Eriocaulon Linnaeus
+Eriocaulon guyanense K"rnicke     -     D
+Eriocaulon melanocephalum Kunth     -     C
+Genre : Paepalanthus Kunth
+Paepalanthus oyapokensis Herzog     -     C
+Genre : Syngonanthus W.O.E. Ruhland
+Syngonanthus leprieurii (F.A. K"rnicke) W.O.E. Ruhland     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Famille : Heliconiaceae</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Genre : Heliconia Linnaeus
+Heliconia dasyantha Koch et Bouch,     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Famille : Hydrocharitaceae</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Genre : Apalanthe Planchon
+Apalanthe granatensis (Humboldt et Bonpland) Planchon     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Famille : Marantaceae</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Genre : Calathea G.F.W. Meyer
+Calathea dilabens L. Andersson et H. Kennedy     -     D
+Calathea erecta L. Andersson et H. Kennedy     -     D
+Calathea granvillei L. Andersson et H. Kennedy     -     D
+Calathea lutea (Aublet) Schultes     -     B
+Calathea mansonis K"rnicke     -     B
+Calathea squarrosa L. Andersson et H. Kennedy     -     D
+Genre : Maranta Linnaeus
+Maranta amplifolia K. Schumann     -     B
+Genre : Monotagma K. Schumann
+Monotagma juruanum Loesener     -     B
+Monotagma ulei K. Schumann ex Loesener     -     B
+Monotagma vaginatum Hagberg     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Famille : Orchidaceae</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Genre : Bollea H.G. Reichenbach
+Bollea violacea (Lindley) H.G. Reichenbach     -     B
+Genre : Brassavola R. Brown
+Brassavola gardneri Cogniaux     -     B
+Genre : Brassia R. Brown
+Brassia huebneri Schlechter     -     B
+Genre : Bulbophyllum L.M.A. du Petit
+Bulbophyllum bracteolatum Lindley     -     B
+Genre : Catasetum L.C.M. Richard ex Kunth
+Catasetum discolor (Lindley) Lindley     -     B
+Genre : Chaubardia Reichenbach
+Chaubardia surinamensis H.G. Reichenbach     -     B
+Genre : Cleistes L.C.M. Richard ex Lindley
+Cleistes grandiflora (Aublet) Schlechter     -     B
+Genre : Coryanthes Hooker
+Coryanthes macrantha (W.J. Hooker) Hooker     -     B
+Coryanthes maculata Hooker     -     B
+Genre : Cycnoches Lindley
+Cycnoches haagii Barbosa Rodrigues     -     B
+Genre : Cyrtopodium R. Brown
+Cyrtopodium andersonii (Lambert) R. Brown     -     E
+Cyrtopodium cristatum Lindley     -     B
+Genre : Degranvillea R.O. Determann
+Degranvillea dermaptera R.O. Determann     -     D
+Genre : Dichaea Lindley
+Dichaea hookeri Garay et Sweet     -     B
+Dichaea kegelii H.G. Reichenbach     -     B
+Dichaea rendlei Gleason     -     B
+Genre : Elleanthus C.B. Presl
+Elleanthus brasiliensis (Lindley) H.G. Reichenbach     -     B
+Elleanthus crinipes H.G. Reichenbach     -     B
+Genre : Encyclia Hooker
+Encyclia diurna (N.J. Jacquin) Schlechter     -     B
+Encyclia odoratissima (Lindley) Schlechter     -     B
+Encyclia pachyantha (Lindley) F.C. Hoehne     -     B
+Encyclia tarumana Schlechter     -     B
+Genre : Epidendrum Linnaeus
+Epidendrum carpophorum Barbosa Rodrigues     -     B
+Epidendrum cremersii E. Hagsater et L. Sanchez     -     D
+Epidendrum ecostatum Pabst     -     B
+Epidendrum longicolle Lindley     -     B
+Epidendrum nutans O.P. Swartz     -     B
+Epidendrum saxatile Lindley     -     F
+Epidendrum smaragdinum Lindley     -     B
+Epidendrum strobiloides L.A. Garay et G.C.K. Dunsterville     -     B
+Epidendrum tridens Poeppig et Endlicher     -     B
+Epidendrum tumuc-humaciense (Veyret) Hagsater     -     B
+Genre : Galeandra Lindley et Bauer
+Galeandra baueri Lindley     -     B
+Galeandra dives H.G. Reichenbach     -     B
+Galeandra styllomisantha (Vellozo) F.C. Hoehne     -     C
+Genre : Habenaria C.L. Willdenow
+Habenaria alterosula Snuverink et Westra     -     B
+Habenaria amambayensis Schlechter     -     B
+Habenaria dusenii Schlechter     -     B
+Habenaria leprieurii H.G. Reichenbach     -     C
+Habenaria longicauda W.J. Hooker     -     C
+Habenaria platydactyla F.W.L. Kraenzlin     -     C
+Habenaria pratensis (Lindley) H.G. Reichenbach     -     C
+Habenaria repens Nuttall     -     B
+Habenaria rodriguesii Cogniaux     -     B
+Habenaria setacea Lindley     -     B
+Habenaria seticauda Lindley ex Bentham     -     B
+Genre : Isochilus R. Brown
+Isochilus linearis (N.J. Jacquin) R. Brown     -     F
+Genre : Jacquiniella Schlechter
+Jacquiniella teretifolia (O.P. Swartz) Britton et Wilson     -     B
+Genre : Kefersteinia Mansfeld
+Kefersteinia lafontainei K. Senghas et G. Gerlach     -     D
+Genre : Koellensteinia H.G. Reichenbach
+Koellensteinia hyacinthoides Schlechter     -     B
+Genre : Lepanthes (Lindley) Bentham
+Lepanthes cremersii Luer     -     D
+Genre : Ligeophila Garay
+Ligeophila petersiana (Cogniaux) Garay     -     B
+Genre : Liparis L.C.M. Richard
+Liparis nervosa (Thunberg) Lindley     -     B
+Genre : Macroclinium Barbosa Rodrigues
+Macroclinium wullschlaegelianum (H. Focke) Dodson     -     B
+Genre : Malaxis Solander ex O.P. Swartz
+Malaxis excavata (Lindley) O. Kuntze     -     B
+Genre : Maxillaria Ruiz et Pavon
+Maxillaria acutiflora Lindley     -     B
+Maxillaria brachybulbon Schlechter     -     B
+Maxillaria christobalensis H.G. Reichenbach     -     B
+Maxillaria leucaimata Barbosa Rodrigues     -     B
+Maxillaria ramosa Ruiz et Pavon     -     B
+Maxillaria reichenheimiana Endres et H.G. Reichenbach     -     B
+Genre : Mormodes Lindley
+Mormodes buccinator Lindley     -     B
+Genre : Myoxanthus Luer
+Myoxanthus parvilabius (C. Schweinfurth) Luer     -     B
+Genre : Notylia Lindley
+Notylia angustifolia Cogniaux     -     B
+Notylia peruviana (Schlechter) C. Schweinfurth     -     B
+Notylia sagittifera (Kunth in Humboldt, Bonpl. et Kunth) L     -     B
+Notylia yauaperyensis Barbosa Rodrigues     -     B
+Genre : Octomeria R. Brown
+Octomeria apiculata (Lindley) Garay et Sweet     -     B
+Octomeria brevifolia Cogniaux     -     B
+Octomeria deltoglossa Garay     -     B
+Octomeria minor C. Schweinfurth     -     B
+Octomeria sarthouae Luer     -     B
+Genre : Oncidium O.P. Swartz
+Oncidium cebolleta (N.J. Jacquin) O.P. Swartz     -     B
+Oncidium lanceanum Lindley     -     B
+Oncidium luridum Lindley     -     B
+Genre : Orleanesia Barbosa Rodrigues
+Orleanesia amazonica Barbosa Rodrigues     -     B
+Genre : Ornithocephalus Hooker
+Ornithocephalus ciliatus Lindley     -     B
+Ornithocephalus kruegeri H.G. Reichenbach     -     B
+Genre : Palmorchis Barbosa Rodrigues
+Palmorchis pabstii Veyret     -     D
+Palmorchis prospectorum Veyret     -     D
+Genre : Phragmipedium Rolfe
+Phragmipedium lindleyanum (Schomburgk) Rolfe     -     A
+Genre : Platythelys Garay
+Platythelys maculata (Hooker) Garay     -     B
+Genre : Plectrophora H. Focke
+Plectrophora cultrifolia (Barbosa Rodrigues) Cogniaux     -     B
+Genre : Pleurothallis R. Brown
+Pleurothallis barthelemyi Luer     -     B
+Pleurothallis breviscapa C. Schweinfurth     -     B
+Pleurothallis ciliolata Schlechter     -     B
+Pleurothallis corniculata (O.P. Swartz) Lindley     -     B
+Pleurothallis floribunda (Lindley) Lindley     -     B
+Pleurothallis glandulosa Ames     -     B
+Pleurothallis nanifolia Foldats     -     B
+Pleurothallis sclerophylla Lindley     -     B
+Pleurothallis seriata Lindley     -     B
+Pleurothallis stenocardium Schlechter     -     B
+Genre : Prescottia Lindley ex Hooker
+Prescottia stachyodes (O.P. Swartz) Lindley     -     B
+Genre : Psychopsis Rafinesque
+Psychopsis papilio (Lindley) H.G. Jones     -     B
+Genre : Psygmorchis Dodson et R.L. Dressler
+Psygmorchis glossomystax (H.G. Reich.) Dodson &amp; R.L.D     -     B
+Genre : Rudolfiella F.C. Hoehne
+Rudolfiella aurantiaca (Lindley) F.C. Hoehne     -     B
+Genre : Scaphyglottis Poeppig et Endlicher
+Scaphyglottis bifida (H.G. Reichenbach) C. Schweinfurth     -     B
+Genre : Scelochilus J.F. Klotzsch
+Scelochilus ecalcaratus R.O. Determann     -     B
+Genre : Sigmatostalix H.G. Reichenbach
+Sigmatostalix amazonica Schlechter     -     B
+Genre : Sobralia Ruiz et Pavon
+Sobralia fragrans Lindley     -     B
+Sobralia sessilis Lindley     -     B
+Sobralia stenophylla Lindley     -     B
+Genre : Spiranthes L.C.M. Richard
+Spiranthes tenuis Lindley     -     B
+Genre : Stelis O.P. Swartz
+Stelis guianensis Rolfe     -     B
+Stelis ophioglossoides O.P. Swartz     -     B
+Stelis santiagoensis Mansfeld     -     B
+Genre : Trichocentrum Poeppig et Endlicher
+Trichocentrum fuscum Lindley     -     B
+Genre : Trichosalpinx Luer
+Trichosalpinx ciliaris (Lindley) Luer     -     B
+Genre : Triphora Nuttall
+Triphora amazonica Schlechter     -     B
+Genre : Trisetella Luer
+Trisetella triglochin (H.G. Reichenbach) Luer     -     F
+Genre : Uleiorchis F.C. Hoehne
+Uleiorchis ulei (Cogniaux) Handro     -     B
+Genre : Vanilla Plumier ex P. Miller
+Vanilla barrereana Szlachetzko et Veyret     -     B
+Vanilla bicolor Lindley     -     B
+Vanilla chamissonis J.F. Klotzsch     -     B
+Vanilla grandiflora Lindley     -     B
+Vanilla leprieurii R. PortSres     -     B
+Vanilla mexicana P. Miller     -     F
+Vanilla odorata C. Presl     -     B
+Vanilla ovata Rolfe     -     B
+Vanilla porteresiana Szlachetzko et Veyret     -     B
+Genre : Xerorchis Schlechter
+Xerorchis trichorhiza (F.W.L. Kraenzlin) Garay     -     B
+Genre : Xylobium Lindley
+Xylobium foveatum (Lindley) Nicholson     -     B
+Genre : Zygosepalum Reichenbach
+Zygosepalum lindeniae (Rolfe) Garay et Dunsterville     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Famille : Poaceae</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Genre : Arberella Soderstrom et Calderon
+Arberella flaccida (Doell) Soderstrom et Calderon     -     F
+Genre : Axonopus Palisot de Beauvois
+Axonopus leptostachyus (Flﾁgg,) Hitchcock     -     F
+Axonopus oiapocencis G.A. Black     -     D
+Axonopus passourae G.A. Black     -     D
+Genre : Eragrostis Wolf
+Eragrostis acutiflora (Kunth in Humboldt, Bonpl. et Kunth)     -     C
+Genre : Eriochloa Kunth in Humboldt, Bonpland et Kunth
+Eriochloa polystachya Kunth in Humboldt, Bonpl. et Kunth     -     C
+Genre : Guadua Kunth
+Guadua macrostachya Ruprecht     -     D
+Genre : Heteropogon Persoon
+Heteropogon melanocarpus (Elliott) Elliott ex Bentham     -     C
+Genre : Ichnanthus Palisot de Beauvois
+Ichnanthus leiocarpus (Sprengel) Kunth     -     F
+Genre : Oryza Linnaeus
+Oryza grandiglumis (Doell) Prodoehl     -     C
+Genre : Panicum Linnaeus
+Panicum olyroides Kunth in Humboldt, Bonpland et Kunth     -     C
+Panicum sciurotoides Zuloaga et Morrone     -     C
+Genre : Parodiolyra Soderstrom et Zuloaga
+Parodiolyra lateralis (J.S. Presl ex C.G.D. Nees) Soders.     -     F
+Genre : Paspalum Stapf
+Paspalum goeldii Swallen     -     C
+Paspalum laxum Lamarck     -     C
+Paspalum riparium C.G.D. Nees     -     C
+Genre : Piresia Swallen
+Piresia macrophylla Soderstrom     -     F
+Genre : Rehia F. Fijten
+Rehia nervata (Swallen) F. Fitjen     -     F
+Genre : Rottboellia Linnaeus f.
+Rottboellia aurita Steudel     -     C
+Genre : Sacciolepis Nash in N.L. Britton
+Sacciolepis angustissima (Hochst. ex Steudel) Kuhlmann     -     C
+Genre : Setaria Palisot de Beauvois
+Setaria magna A.H.R. Grisebach     -     C
+Genre : Sorghastrum Nash in N.L. Britton
+Sorghastrum setosum (A.H.R. Grisebach) Hitchcock     -     C
+Genre : Sporobolus R. Brown
+Sporobolus ciliatus J.S. Presl     -     C
+Sporobolus pyramidatus (Lamarck) Hitchcock     -     C
+Genre : Tripsacum Linnaeus
+Tripsacum dactyloides (Linnaeus) Linnaeus     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Famille : Pontederiaceae</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Genre : Eichhornia Kunth
+Eichhornia azurea (O.P. Swartz) Kunth     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Famille : Rapateaceae</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Genre : Rapatea Aublet
+Rapatea salensis S.A. Mori     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Famille : Ruppiaceae</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Genre : Ruppia Linnaeus
+Ruppia maritima Linnaeus     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Famille : Smilacaceae</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Genre : Smilax Linnaeus
+Smilax pseudosyphilitica Kunth     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Embranchement : Spermatophyta</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Famille : Xyridaceae</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Genre : Xyris Linnaeus
+Xyris anceps Lamarck     -     C
+Xyris malmeana L.B. Smith     -     C
+Xyris spathacea Lanjouw     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Embranchement : Pteridophyta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Famille : Aspleniaceae
-Genre : Asplenium Linnaeus
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Famille : Aspleniaceae</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Genre : Asplenium Linnaeus
 Asplenium formosum C.L. Willdenow     -     F
 Asplenium riparium Liebmann     -     F
-Asplenium rutaceum (C.L. Willdenow) Mettenius     -     F
-Famille : Blechnaceae
-Genre : Blechnum Linnaeus
-Blechnum asplenioides O.P. Swartz     -     F
-Famille : Cyatheaceae
-Genre : Cyathea J.E. Smith
+Asplenium rutaceum (C.L. Willdenow) Mettenius     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Famille : Blechnaceae</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Genre : Blechnum Linnaeus
+Blechnum asplenioides O.P. Swartz     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Famille : Cyatheaceae</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Genre : Cyathea J.E. Smith
 Cyathea lasiosora (Kuhn) Domin     -     B
-Cyathea marginalis (J.F. Klotzsch) Domin     -     B
-Famille : Dennstaedtiaceae
-Genre : Microlepia C.B. Presl
-Microlepia speluncae (Linnaeus) T. Moore     -     C
-Famille : Dryopteridaceae
-Genre : Cyclodium C.B. Presl
+Cyathea marginalis (J.F. Klotzsch) Domin     -     B</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Famille : Dennstaedtiaceae</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Genre : Microlepia C.B. Presl
+Microlepia speluncae (Linnaeus) T. Moore     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Famille : Dryopteridaceae</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Genre : Cyclodium C.B. Presl
 Cyclodium rheophilum A.R. Smith     -     D
 Genre : Diplazium O.P. Swartz
 Diplazium brasiliense E. Rosenstock     -     F
@@ -1410,49 +5454,355 @@
 Lastreopsis effusa (O.P. Swartz) Tindale     -     F
 subsp. divergens (C.L. Willdenow ex Schkuhr) Tinda
 Genre : Tectaria Cavanilles
-Tectaria heracleifolia (C.L. Willd.) L.M. Underwood     -     F
-Famille : Grammitidaceae
-Genre : Enterosora Baker
+Tectaria heracleifolia (C.L. Willd.) L.M. Underwood     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Famille : Grammitidaceae</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Genre : Enterosora Baker
 Enterosora campbellii Baker in E.F. im Thurn     -     F
 subsp. campbellii
 Genre : Grammitis O.P. Swartz
-Grammitis kegeliana (Kunze) Lellinger     -     F
-Famille : Isoetaceae
-Genre : Isoetes Linnaeus
-Isoetes schinzii H.P. Fuchs     -     C
-Famille : Lomariopsidaceae
-Genre : Elaphoglossum Schott
-Elaphoglossum longicaudatum Mickel     -     F
-Famille : Ophioglossaceae
-Genre : Ophioglossum Linnaeus
-Ophioglossum nudicaule Linnaeus f.     -     C
-Famille : Polypodiaceae
-Genre : Campyloneurum C.B. Presl
+Grammitis kegeliana (Kunze) Lellinger     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Famille : Isoetaceae</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Genre : Isoetes Linnaeus
+Isoetes schinzii H.P. Fuchs     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Famille : Lomariopsidaceae</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Genre : Elaphoglossum Schott
+Elaphoglossum longicaudatum Mickel     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Famille : Ophioglossaceae</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Genre : Ophioglossum Linnaeus
+Ophioglossum nudicaule Linnaeus f.     -     C</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Famille : Polypodiaceae</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Genre : Campyloneurum C.B. Presl
 Campyloneurum occultum (Christ) L.D. Gomez     -     F
 Genre : Microgramma C.B. Presl
 Microgramma piloselloides (Linnaeus) E.B. Copeland     -     C
 Microgramma tecta (Kaulfuss) Alston     -     F
 Genre : Polypodium Linnaeus
 Polypodium dulce Poiret in Lamarck     -     F
-Polypodium lasiopus J.F. Klotzsch     -     F
-Famille : Pteridaceae
-Genre : Adiantum Linnaeus
+Polypodium lasiopus J.F. Klotzsch     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Famille : Pteridaceae</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Genre : Adiantum Linnaeus
 Adiantum oyapokense Jenman     -     D
 Genre : Ceratopteris A.T. Brongniart
 Ceratopteris pteridoides (Hooker) Hieronymus     -     C
 Ceratopteris thalictroides (Linnaeus) A.T. Brongniart     -     C
 Genre : Pteris Linnaeus
-Pteris deflexa Link     -     F
-Famille : Schizaeaceae
-Genre : Anemia O.P. Swartz
+Pteris deflexa Link     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Famille : Schizaeaceae</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Genre : Anemia O.P. Swartz
 Anemia pastinacaria Moritz ex Prantl     -     C
 Genre : Schizaea J.E. Smith
-Schizaea incurvata Schkuhr     -     D
-Famille : Selaginellaceae
-Genre : Selaginella Palisot de Beauvois
-Selaginella seemannii Baker     -     F
-Famille : Thelypteridaceae
-Genre : Thelypteris Schmidle
+Schizaea incurvata Schkuhr     -     D</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Famille : Selaginellaceae</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Genre : Selaginella Palisot de Beauvois
+Selaginella seemannii Baker     -     F</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées,_endémiques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es,_end%C3%A9miques,_rares_et_patrimoniales_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Embranchement : Pteridophyta</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Famille : Thelypteridaceae</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Genre : Thelypteris Schmidle
 Thelypteris holodictya K.U. Kramer     -     D
 Thelypteris tetragona (O.P. Swartz) Small     -     C
 Thelypteris tristis (Kunze) R.M. Tryon     -     F</t>
